--- a/analysis_S.wide/derived_data/cut.marks_bone.plates.xlsx
+++ b/analysis_S.wide/derived_data/cut.marks_bone.plates.xlsx
@@ -13,41 +13,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
-  <si>
-    <t xml:space="preserve">Exp.plate</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+  <si>
+    <t xml:space="preserve">Equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acquisition.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis.date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis.time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bone.plate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw.material</t>
   </si>
   <si>
     <t xml:space="preserve">Sample</t>
   </si>
   <si>
-    <t xml:space="preserve">Experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bone.plate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raw.material</t>
-  </si>
-  <si>
     <t xml:space="preserve">Movement</t>
   </si>
   <si>
+    <t xml:space="preserve">Strokes</t>
+  </si>
+  <si>
     <t xml:space="preserve">Edge.angle</t>
   </si>
   <si>
-    <t xml:space="preserve">Strokes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis.date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis.time</t>
-  </si>
-  <si>
     <t xml:space="preserve">Axis.length.X</t>
   </si>
   <si>
@@ -69,303 +69,238 @@
     <t xml:space="preserve">NM.points.ratio.Z</t>
   </si>
   <si>
-    <t xml:space="preserve">Maximum.depth.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP-III-TFE</t>
+    <t xml:space="preserve">Maximum.depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S-wide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:01:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP-III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flint</t>
   </si>
   <si>
     <t xml:space="preserve">FLT8-7</t>
   </si>
   <si>
-    <t xml:space="preserve">TFE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP-III</t>
-  </si>
-  <si>
-    <t xml:space="preserve">flint</t>
-  </si>
-  <si>
     <t xml:space="preserve">carving</t>
   </si>
   <si>
-    <t xml:space="preserve">35deg</t>
-  </si>
-  <si>
     <t xml:space="preserve">2000strokes</t>
   </si>
   <si>
-    <t xml:space="preserve">S-wide</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23.09.2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:01:55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">223527.7841</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16921</t>
+    <t xml:space="preserve">35°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:04:22</t>
   </si>
   <si>
     <t xml:space="preserve">FLT8-8</t>
   </si>
   <si>
-    <t xml:space="preserve">15:04:22</t>
+    <t xml:space="preserve">15:06:25</t>
   </si>
   <si>
     <t xml:space="preserve">FLT8-9</t>
   </si>
   <si>
-    <t xml:space="preserve">15:06:25</t>
+    <t xml:space="preserve">15:09:12</t>
   </si>
   <si>
     <t xml:space="preserve">FLT8-10</t>
   </si>
   <si>
-    <t xml:space="preserve">45deg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:09:12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222070.5891</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12728</t>
+    <t xml:space="preserve">45°</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15:11:19</t>
   </si>
   <si>
     <t xml:space="preserve">FLT8-11</t>
   </si>
   <si>
-    <t xml:space="preserve">15:11:19</t>
+    <t xml:space="preserve">15:13:22</t>
   </si>
   <si>
     <t xml:space="preserve">FLT8-12</t>
   </si>
   <si>
-    <t xml:space="preserve">15:13:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP-II-TFE</t>
+    <t xml:space="preserve">15:15:58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lydite</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT5-8</t>
   </si>
   <si>
-    <t xml:space="preserve">BP-II</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lydite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:15:58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">218887.5591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15418</t>
+    <t xml:space="preserve">15:21:14</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT5-9</t>
   </si>
   <si>
-    <t xml:space="preserve">15:21:14</t>
+    <t xml:space="preserve">15:23:09</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT5-10</t>
   </si>
   <si>
-    <t xml:space="preserve">15:23:09</t>
+    <t xml:space="preserve">15:25:23</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT5-11</t>
   </si>
   <si>
-    <t xml:space="preserve">15:25:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240217.8622</t>
+    <t xml:space="preserve">15:28:01</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT5-12</t>
   </si>
   <si>
-    <t xml:space="preserve">15:28:01</t>
+    <t xml:space="preserve">15:29:58</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT5-13</t>
   </si>
   <si>
-    <t xml:space="preserve">15:29:58</t>
+    <t xml:space="preserve">15:32:05</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT5-14</t>
   </si>
   <si>
-    <t xml:space="preserve">15:32:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216674.7451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BP-I-TFE</t>
+    <t xml:space="preserve">15:34:24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BP-I</t>
   </si>
   <si>
     <t xml:space="preserve">FLT8-1</t>
   </si>
   <si>
-    <t xml:space="preserve">BP-I</t>
-  </si>
-  <si>
     <t xml:space="preserve">cutting</t>
   </si>
   <si>
-    <t xml:space="preserve">15:34:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">217372.4352</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13194</t>
+    <t xml:space="preserve">15:36:20</t>
   </si>
   <si>
     <t xml:space="preserve">FLT8-2</t>
   </si>
   <si>
-    <t xml:space="preserve">15:36:20</t>
+    <t xml:space="preserve">15:40:11</t>
   </si>
   <si>
     <t xml:space="preserve">FLT8-3</t>
   </si>
   <si>
-    <t xml:space="preserve">15:40:11</t>
+    <t xml:space="preserve">15:42:52</t>
   </si>
   <si>
     <t xml:space="preserve">FLT8-4</t>
   </si>
   <si>
-    <t xml:space="preserve">15:42:52</t>
+    <t xml:space="preserve">15:45:06</t>
   </si>
   <si>
     <t xml:space="preserve">FLT8-5</t>
   </si>
   <si>
-    <t xml:space="preserve">15:45:06</t>
+    <t xml:space="preserve">15:46:52</t>
   </si>
   <si>
     <t xml:space="preserve">FLT8-6</t>
   </si>
   <si>
-    <t xml:space="preserve">15:46:52</t>
+    <t xml:space="preserve">15:49:27</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT5-2</t>
   </si>
   <si>
-    <t xml:space="preserve">15:49:27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219807.3545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13182</t>
+    <t xml:space="preserve">15:52:28</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT5-3</t>
   </si>
   <si>
-    <t xml:space="preserve">15:52:28</t>
+    <t xml:space="preserve">15:55:31</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT5-4</t>
   </si>
   <si>
-    <t xml:space="preserve">15:55:31</t>
+    <t xml:space="preserve">15:57:11</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT5-5</t>
   </si>
   <si>
-    <t xml:space="preserve">15:57:11</t>
+    <t xml:space="preserve">15:59:39</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT5-6</t>
   </si>
   <si>
-    <t xml:space="preserve">15:59:39</t>
+    <t xml:space="preserve">16:01:28</t>
   </si>
   <si>
     <t xml:space="preserve">LYDIT5-7</t>
   </si>
   <si>
-    <t xml:space="preserve">16:01:28</t>
-  </si>
-  <si>
     <t xml:space="preserve">variable</t>
   </si>
   <si>
     <t xml:space="preserve">unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Axis spacing - X</t>
-  </si>
-  <si>
     <t xml:space="preserve">µm</t>
   </si>
   <si>
-    <t xml:space="preserve">Axis length - Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Axis size - Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">points</t>
   </si>
   <si>
-    <t xml:space="preserve">Axis spacing - Y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NM-points ratio - Z</t>
-  </si>
-  <si>
     <t xml:space="preserve">%</t>
   </si>
   <si>
-    <t xml:space="preserve">Maximum depth[1]</t>
-  </si>
-  <si>
     <t xml:space="preserve">nm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance[1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distance[2]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -388,8 +323,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -752,41 +688,41 @@
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>27</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="J2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>33</v>
+      <c r="L2" t="n">
+        <v>223527.7841</v>
+      </c>
+      <c r="M2" t="n">
+        <v>16921</v>
       </c>
       <c r="N2" t="n">
         <v>13.21086194</v>
@@ -817,41 +753,41 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>29</v>
       </c>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>33</v>
+      <c r="L3" t="n">
+        <v>223527.7841</v>
+      </c>
+      <c r="M3" t="n">
+        <v>16921</v>
       </c>
       <c r="N3" t="n">
         <v>13.21086194</v>
@@ -882,41 +818,41 @@
       <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>25</v>
       </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>28</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>29</v>
       </c>
-      <c r="J4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" t="s">
-        <v>33</v>
+      <c r="L4" t="n">
+        <v>223527.7841</v>
+      </c>
+      <c r="M4" t="n">
+        <v>16921</v>
       </c>
       <c r="N4" t="n">
         <v>13.21086194</v>
@@ -947,41 +883,41 @@
       <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
       <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>30</v>
-      </c>
       <c r="K5" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="L5" t="n">
+        <v>222070.5891</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12728</v>
       </c>
       <c r="N5" t="n">
         <v>17.44877733</v>
@@ -1012,41 +948,41 @@
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
       <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
         <v>28</v>
       </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
       <c r="K6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="L6" t="n">
+        <v>222070.5891</v>
+      </c>
+      <c r="M6" t="n">
+        <v>12728</v>
       </c>
       <c r="N6" t="n">
         <v>17.44877733</v>
@@ -1077,41 +1013,41 @@
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
       <c r="H7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
       <c r="K7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" t="s">
-        <v>42</v>
+        <v>36</v>
+      </c>
+      <c r="L7" t="n">
+        <v>222070.5891</v>
+      </c>
+      <c r="M7" t="n">
+        <v>12728</v>
       </c>
       <c r="N7" t="n">
         <v>17.44877733</v>
@@ -1140,43 +1076,43 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
         <v>28</v>
       </c>
-      <c r="I8" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
       <c r="K8" t="s">
-        <v>51</v>
-      </c>
-      <c r="L8" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="L8" t="n">
+        <v>218887.5591</v>
+      </c>
+      <c r="M8" t="n">
+        <v>15418</v>
       </c>
       <c r="N8" t="n">
         <v>14.19780497</v>
@@ -1205,43 +1141,43 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s">
-        <v>50</v>
-      </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
         <v>28</v>
       </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" t="s">
-        <v>30</v>
-      </c>
       <c r="K9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M9" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="L9" t="n">
+        <v>218887.5591</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15418</v>
       </c>
       <c r="N9" t="n">
         <v>14.19780497</v>
@@ -1270,43 +1206,43 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
         <v>28</v>
       </c>
-      <c r="I10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" t="s">
-        <v>30</v>
-      </c>
       <c r="K10" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="L10" t="n">
+        <v>218887.5591</v>
+      </c>
+      <c r="M10" t="n">
+        <v>15418</v>
       </c>
       <c r="N10" t="n">
         <v>14.19780497</v>
@@ -1335,43 +1271,43 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>44462</v>
       </c>
       <c r="D11" t="s">
         <v>49</v>
       </c>
       <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>27</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>28</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>29</v>
       </c>
-      <c r="J11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" t="s">
-        <v>60</v>
-      </c>
-      <c r="M11" t="s">
-        <v>33</v>
+      <c r="L11" t="n">
+        <v>240217.8622</v>
+      </c>
+      <c r="M11" t="n">
+        <v>16921</v>
       </c>
       <c r="N11" t="n">
         <v>14.19727318</v>
@@ -1400,43 +1336,43 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
-      </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I12" t="s">
         <v>27</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>28</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>29</v>
       </c>
-      <c r="J12" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12" t="s">
-        <v>33</v>
+      <c r="L12" t="n">
+        <v>240217.8622</v>
+      </c>
+      <c r="M12" t="n">
+        <v>16921</v>
       </c>
       <c r="N12" t="n">
         <v>14.19727318</v>
@@ -1465,43 +1401,43 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" t="s">
         <v>27</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>28</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>29</v>
       </c>
-      <c r="J13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13" t="s">
-        <v>33</v>
+      <c r="L13" t="n">
+        <v>240217.8622</v>
+      </c>
+      <c r="M13" t="n">
+        <v>16921</v>
       </c>
       <c r="N13" t="n">
         <v>14.19727318</v>
@@ -1530,43 +1466,43 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" t="s">
         <v>27</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>28</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>29</v>
       </c>
-      <c r="J14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M14" t="s">
-        <v>53</v>
+      <c r="L14" t="n">
+        <v>216674.7451</v>
+      </c>
+      <c r="M14" t="n">
+        <v>15418</v>
       </c>
       <c r="N14" t="n">
         <v>14.05427419</v>
@@ -1595,43 +1531,43 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" t="s">
         <v>23</v>
       </c>
-      <c r="D15" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
         <v>25</v>
       </c>
-      <c r="F15" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
       <c r="H15" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" t="s">
         <v>28</v>
       </c>
-      <c r="I15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" t="s">
-        <v>30</v>
-      </c>
       <c r="K15" t="s">
-        <v>72</v>
-      </c>
-      <c r="L15" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15" t="s">
-        <v>74</v>
+        <v>36</v>
+      </c>
+      <c r="L15" t="n">
+        <v>217372.4352</v>
+      </c>
+      <c r="M15" t="n">
+        <v>13194</v>
       </c>
       <c r="N15" t="n">
         <v>16.47634618</v>
@@ -1660,43 +1596,43 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="D16" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
         <v>25</v>
       </c>
-      <c r="F16" t="s">
-        <v>71</v>
-      </c>
-      <c r="G16" t="s">
-        <v>39</v>
-      </c>
       <c r="H16" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" t="s">
         <v>28</v>
       </c>
-      <c r="I16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" t="s">
-        <v>30</v>
-      </c>
       <c r="K16" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" t="s">
-        <v>73</v>
-      </c>
-      <c r="M16" t="s">
-        <v>74</v>
+        <v>36</v>
+      </c>
+      <c r="L16" t="n">
+        <v>217372.4352</v>
+      </c>
+      <c r="M16" t="n">
+        <v>13194</v>
       </c>
       <c r="N16" t="n">
         <v>16.47634618</v>
@@ -1725,43 +1661,43 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
         <v>25</v>
       </c>
-      <c r="F17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
       <c r="H17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" t="s">
         <v>28</v>
       </c>
-      <c r="I17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" t="s">
-        <v>30</v>
-      </c>
       <c r="K17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" t="s">
-        <v>74</v>
+        <v>36</v>
+      </c>
+      <c r="L17" t="n">
+        <v>217372.4352</v>
+      </c>
+      <c r="M17" t="n">
+        <v>13194</v>
       </c>
       <c r="N17" t="n">
         <v>16.47634618</v>
@@ -1790,43 +1726,43 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" t="s">
         <v>23</v>
       </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
       <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" t="s">
         <v>28</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>29</v>
       </c>
-      <c r="J18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18" t="s">
-        <v>74</v>
+      <c r="L18" t="n">
+        <v>217372.4352</v>
+      </c>
+      <c r="M18" t="n">
+        <v>13194</v>
       </c>
       <c r="N18" t="n">
         <v>16.47634618</v>
@@ -1855,43 +1791,43 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" t="s">
         <v>28</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>29</v>
       </c>
-      <c r="J19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K19" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" t="s">
-        <v>73</v>
-      </c>
-      <c r="M19" t="s">
-        <v>74</v>
+      <c r="L19" t="n">
+        <v>217372.4352</v>
+      </c>
+      <c r="M19" t="n">
+        <v>13194</v>
       </c>
       <c r="N19" t="n">
         <v>16.47634618</v>
@@ -1920,43 +1856,43 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
         <v>70</v>
       </c>
-      <c r="E20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J20" t="s">
         <v>28</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>29</v>
       </c>
-      <c r="J20" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" t="s">
-        <v>84</v>
-      </c>
-      <c r="L20" t="s">
-        <v>73</v>
-      </c>
-      <c r="M20" t="s">
-        <v>74</v>
+      <c r="L20" t="n">
+        <v>217372.4352</v>
+      </c>
+      <c r="M20" t="n">
+        <v>13194</v>
       </c>
       <c r="N20" t="n">
         <v>16.47634618</v>
@@ -1985,43 +1921,43 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" t="s">
-        <v>50</v>
-      </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H21" t="s">
+        <v>72</v>
+      </c>
+      <c r="I21" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" t="s">
         <v>28</v>
       </c>
-      <c r="I21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" t="s">
-        <v>30</v>
-      </c>
       <c r="K21" t="s">
-        <v>86</v>
-      </c>
-      <c r="L21" t="s">
-        <v>87</v>
-      </c>
-      <c r="M21" t="s">
-        <v>88</v>
+        <v>36</v>
+      </c>
+      <c r="L21" t="n">
+        <v>219807.3545</v>
+      </c>
+      <c r="M21" t="n">
+        <v>13182</v>
       </c>
       <c r="N21" t="n">
         <v>16.67607576</v>
@@ -2050,43 +1986,43 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
         <v>23</v>
       </c>
-      <c r="D22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" t="s">
-        <v>50</v>
-      </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
+        <v>74</v>
+      </c>
+      <c r="I22" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" t="s">
         <v>28</v>
       </c>
-      <c r="I22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" t="s">
-        <v>30</v>
-      </c>
       <c r="K22" t="s">
-        <v>90</v>
-      </c>
-      <c r="L22" t="s">
-        <v>87</v>
-      </c>
-      <c r="M22" t="s">
-        <v>88</v>
+        <v>36</v>
+      </c>
+      <c r="L22" t="n">
+        <v>219807.3545</v>
+      </c>
+      <c r="M22" t="n">
+        <v>13182</v>
       </c>
       <c r="N22" t="n">
         <v>16.67607576</v>
@@ -2115,43 +2051,43 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" t="s">
         <v>23</v>
       </c>
-      <c r="D23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E23" t="s">
-        <v>50</v>
-      </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H23" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" t="s">
         <v>28</v>
       </c>
-      <c r="I23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" t="s">
-        <v>30</v>
-      </c>
       <c r="K23" t="s">
-        <v>92</v>
-      </c>
-      <c r="L23" t="s">
-        <v>87</v>
-      </c>
-      <c r="M23" t="s">
-        <v>88</v>
+        <v>36</v>
+      </c>
+      <c r="L23" t="n">
+        <v>219807.3545</v>
+      </c>
+      <c r="M23" t="n">
+        <v>13182</v>
       </c>
       <c r="N23" t="n">
         <v>16.67607576</v>
@@ -2180,43 +2116,43 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
         <v>23</v>
       </c>
-      <c r="D24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" t="s">
-        <v>50</v>
-      </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" t="s">
         <v>28</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>29</v>
       </c>
-      <c r="J24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" t="s">
-        <v>94</v>
-      </c>
-      <c r="L24" t="s">
-        <v>87</v>
-      </c>
-      <c r="M24" t="s">
-        <v>88</v>
+      <c r="L24" t="n">
+        <v>219807.3545</v>
+      </c>
+      <c r="M24" t="n">
+        <v>13182</v>
       </c>
       <c r="N24" t="n">
         <v>16.67607576</v>
@@ -2245,43 +2181,43 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
         <v>23</v>
       </c>
-      <c r="D25" t="s">
-        <v>70</v>
-      </c>
-      <c r="E25" t="s">
-        <v>50</v>
-      </c>
       <c r="F25" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H25" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" t="s">
         <v>28</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>29</v>
       </c>
-      <c r="J25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K25" t="s">
-        <v>96</v>
-      </c>
-      <c r="L25" t="s">
-        <v>87</v>
-      </c>
-      <c r="M25" t="s">
-        <v>88</v>
+      <c r="L25" t="n">
+        <v>219807.3545</v>
+      </c>
+      <c r="M25" t="n">
+        <v>13182</v>
       </c>
       <c r="N25" t="n">
         <v>16.67607576</v>
@@ -2310,43 +2246,43 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>44411</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>44462</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
         <v>23</v>
       </c>
-      <c r="D26" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" t="s">
-        <v>50</v>
-      </c>
       <c r="F26" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="H26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" t="s">
         <v>28</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>29</v>
       </c>
-      <c r="J26" t="s">
-        <v>30</v>
-      </c>
-      <c r="K26" t="s">
-        <v>98</v>
-      </c>
-      <c r="L26" t="s">
-        <v>87</v>
-      </c>
-      <c r="M26" t="s">
-        <v>88</v>
+      <c r="L26" t="n">
+        <v>219807.3545</v>
+      </c>
+      <c r="M26" t="n">
+        <v>13182</v>
       </c>
       <c r="N26" t="n">
         <v>16.67607576</v>
@@ -2389,74 +2325,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>112</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/analysis_S.wide/derived_data/cut.marks_bone.plates.xlsx
+++ b/analysis_S.wide/derived_data/cut.marks_bone.plates.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t xml:space="preserve">Equipment</t>
   </si>
@@ -178,12 +178,6 @@
   </si>
   <si>
     <t xml:space="preserve">LYDIT5-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15:32:05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LYDIT5-14</t>
   </si>
   <si>
     <t xml:space="preserve">15:34:24</t>
@@ -1481,52 +1475,52 @@
         <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="J14" t="s">
         <v>28</v>
       </c>
       <c r="K14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L14" t="n">
-        <v>216674.7451</v>
+        <v>217372.4352</v>
       </c>
       <c r="M14" t="n">
-        <v>15418</v>
+        <v>13194</v>
       </c>
       <c r="N14" t="n">
-        <v>14.05427419</v>
+        <v>16.47634618</v>
       </c>
       <c r="O14" t="n">
-        <v>30572.14814</v>
+        <v>9342.169605</v>
       </c>
       <c r="P14" t="n">
-        <v>2157</v>
+        <v>568</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.18003161</v>
+        <v>16.4764896</v>
       </c>
       <c r="R14" t="n">
-        <v>0.006476905</v>
+        <v>0.00054709</v>
       </c>
       <c r="S14" t="n">
-        <v>51159.4006</v>
+        <v>381633.2045</v>
       </c>
       <c r="T14" t="n">
-        <v>17143.64931</v>
+        <v>889.7321512</v>
       </c>
       <c r="U14" t="n">
-        <v>80.80044332</v>
+        <v>382.4040382</v>
       </c>
     </row>
     <row r="15">
@@ -1540,22 +1534,22 @@
         <v>44462</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
         <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J15" t="s">
         <v>28</v>
@@ -1573,25 +1567,25 @@
         <v>16.47634618</v>
       </c>
       <c r="O15" t="n">
-        <v>9342.169605</v>
+        <v>9819.987804</v>
       </c>
       <c r="P15" t="n">
-        <v>568</v>
+        <v>597</v>
       </c>
       <c r="Q15" t="n">
         <v>16.4764896</v>
       </c>
       <c r="R15" t="n">
-        <v>0.00054709</v>
+        <v>0.000457037</v>
       </c>
       <c r="S15" t="n">
-        <v>381633.2045</v>
+        <v>441531.3052</v>
       </c>
       <c r="T15" t="n">
-        <v>889.7321512</v>
+        <v>955.6388636</v>
       </c>
       <c r="U15" t="n">
-        <v>382.4040382</v>
+        <v>442.4870729</v>
       </c>
     </row>
     <row r="16">
@@ -1611,7 +1605,7 @@
         <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G16" t="s">
         <v>25</v>
@@ -1620,7 +1614,7 @@
         <v>62</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J16" t="s">
         <v>28</v>
@@ -1638,25 +1632,25 @@
         <v>16.47634618</v>
       </c>
       <c r="O16" t="n">
-        <v>9819.987804</v>
+        <v>12274.98475</v>
       </c>
       <c r="P16" t="n">
-        <v>597</v>
+        <v>746</v>
       </c>
       <c r="Q16" t="n">
         <v>16.4764896</v>
       </c>
       <c r="R16" t="n">
-        <v>0.000457037</v>
+        <v>0.000365752</v>
       </c>
       <c r="S16" t="n">
-        <v>441531.3052</v>
+        <v>572465.4067</v>
       </c>
       <c r="T16" t="n">
-        <v>955.6388636</v>
+        <v>1449.930777</v>
       </c>
       <c r="U16" t="n">
-        <v>442.4870729</v>
+        <v>572.0955886</v>
       </c>
     </row>
     <row r="17">
@@ -1676,7 +1670,7 @@
         <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G17" t="s">
         <v>25</v>
@@ -1685,13 +1679,13 @@
         <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J17" t="s">
         <v>28</v>
       </c>
       <c r="K17" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L17" t="n">
         <v>217372.4352</v>
@@ -1703,25 +1697,25 @@
         <v>16.47634618</v>
       </c>
       <c r="O17" t="n">
-        <v>12274.98475</v>
+        <v>10314.28249</v>
       </c>
       <c r="P17" t="n">
-        <v>746</v>
+        <v>627</v>
       </c>
       <c r="Q17" t="n">
         <v>16.4764896</v>
       </c>
       <c r="R17" t="n">
-        <v>0.000365752</v>
+        <v>0.075199713</v>
       </c>
       <c r="S17" t="n">
-        <v>572465.4067</v>
+        <v>993470.0116</v>
       </c>
       <c r="T17" t="n">
-        <v>1449.930777</v>
+        <v>1351.074046</v>
       </c>
       <c r="U17" t="n">
-        <v>572.0955886</v>
+        <v>992.2560931</v>
       </c>
     </row>
     <row r="18">
@@ -1741,7 +1735,7 @@
         <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G18" t="s">
         <v>25</v>
@@ -1750,7 +1744,7 @@
         <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J18" t="s">
         <v>28</v>
@@ -1777,16 +1771,16 @@
         <v>16.4764896</v>
       </c>
       <c r="R18" t="n">
-        <v>0.075199713</v>
+        <v>0.001486829</v>
       </c>
       <c r="S18" t="n">
-        <v>993470.0116</v>
+        <v>516820.806</v>
       </c>
       <c r="T18" t="n">
-        <v>1351.074046</v>
+        <v>1351.075115</v>
       </c>
       <c r="U18" t="n">
-        <v>992.2560931</v>
+        <v>516.9041931</v>
       </c>
     </row>
     <row r="19">
@@ -1806,7 +1800,7 @@
         <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G19" t="s">
         <v>25</v>
@@ -1815,7 +1809,7 @@
         <v>68</v>
       </c>
       <c r="I19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J19" t="s">
         <v>28</v>
@@ -1833,25 +1827,25 @@
         <v>16.47634618</v>
       </c>
       <c r="O19" t="n">
-        <v>10314.28249</v>
+        <v>10808.57718</v>
       </c>
       <c r="P19" t="n">
-        <v>627</v>
+        <v>657</v>
       </c>
       <c r="Q19" t="n">
         <v>16.4764896</v>
       </c>
       <c r="R19" t="n">
-        <v>0.001486829</v>
+        <v>0.000242258</v>
       </c>
       <c r="S19" t="n">
-        <v>516820.806</v>
+        <v>472722.6055</v>
       </c>
       <c r="T19" t="n">
-        <v>1351.075115</v>
+        <v>675.5383549</v>
       </c>
       <c r="U19" t="n">
-        <v>516.9041931</v>
+        <v>473.4851085</v>
       </c>
     </row>
     <row r="20">
@@ -1871,52 +1865,52 @@
         <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H20" t="s">
         <v>70</v>
       </c>
       <c r="I20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J20" t="s">
         <v>28</v>
       </c>
       <c r="K20" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="L20" t="n">
-        <v>217372.4352</v>
+        <v>219807.3545</v>
       </c>
       <c r="M20" t="n">
-        <v>13194</v>
+        <v>13182</v>
       </c>
       <c r="N20" t="n">
-        <v>16.47634618</v>
+        <v>16.67607576</v>
       </c>
       <c r="O20" t="n">
-        <v>10808.57718</v>
+        <v>7437.13934</v>
       </c>
       <c r="P20" t="n">
-        <v>657</v>
+        <v>447</v>
       </c>
       <c r="Q20" t="n">
-        <v>16.4764896</v>
+        <v>16.67520031</v>
       </c>
       <c r="R20" t="n">
-        <v>0.000242258</v>
+        <v>0.000322452</v>
       </c>
       <c r="S20" t="n">
-        <v>472722.6055</v>
+        <v>756899.6088</v>
       </c>
       <c r="T20" t="n">
-        <v>675.5383549</v>
+        <v>1417.389548</v>
       </c>
       <c r="U20" t="n">
-        <v>473.4851085</v>
+        <v>756.1625285</v>
       </c>
     </row>
     <row r="21">
@@ -1936,7 +1930,7 @@
         <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G21" t="s">
         <v>43</v>
@@ -1945,7 +1939,7 @@
         <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J21" t="s">
         <v>28</v>
@@ -1963,25 +1957,25 @@
         <v>16.67607576</v>
       </c>
       <c r="O21" t="n">
-        <v>7437.13934</v>
+        <v>8937.907368</v>
       </c>
       <c r="P21" t="n">
-        <v>447</v>
+        <v>537</v>
       </c>
       <c r="Q21" t="n">
         <v>16.67520031</v>
       </c>
       <c r="R21" t="n">
-        <v>0.000322452</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>756899.6088</v>
+        <v>726392.6085</v>
       </c>
       <c r="T21" t="n">
-        <v>1417.389548</v>
+        <v>1567.467062</v>
       </c>
       <c r="U21" t="n">
-        <v>756.1625285</v>
+        <v>726.2990271</v>
       </c>
     </row>
     <row r="22">
@@ -2001,7 +1995,7 @@
         <v>23</v>
       </c>
       <c r="F22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
         <v>43</v>
@@ -2010,7 +2004,7 @@
         <v>74</v>
       </c>
       <c r="I22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J22" t="s">
         <v>28</v>
@@ -2028,25 +2022,25 @@
         <v>16.67607576</v>
       </c>
       <c r="O22" t="n">
-        <v>8937.907368</v>
+        <v>9421.488177</v>
       </c>
       <c r="P22" t="n">
-        <v>537</v>
+        <v>566</v>
       </c>
       <c r="Q22" t="n">
         <v>16.67520031</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.001715585</v>
       </c>
       <c r="S22" t="n">
-        <v>726392.6085</v>
+        <v>655604.1077</v>
       </c>
       <c r="T22" t="n">
-        <v>1567.467062</v>
+        <v>1584.132421</v>
       </c>
       <c r="U22" t="n">
-        <v>726.2990271</v>
+        <v>653.4597783</v>
       </c>
     </row>
     <row r="23">
@@ -2066,7 +2060,7 @@
         <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
         <v>43</v>
@@ -2075,13 +2069,13 @@
         <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J23" t="s">
         <v>28</v>
       </c>
       <c r="K23" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="L23" t="n">
         <v>219807.3545</v>
@@ -2093,25 +2087,25 @@
         <v>16.67607576</v>
       </c>
       <c r="O23" t="n">
-        <v>9421.488177</v>
+        <v>8937.907368</v>
       </c>
       <c r="P23" t="n">
-        <v>566</v>
+        <v>537</v>
       </c>
       <c r="Q23" t="n">
         <v>16.67520031</v>
       </c>
       <c r="R23" t="n">
-        <v>0.001715585</v>
+        <v>0.001073638</v>
       </c>
       <c r="S23" t="n">
-        <v>655604.1077</v>
+        <v>1134795.413</v>
       </c>
       <c r="T23" t="n">
-        <v>1584.132421</v>
+        <v>2334.526856</v>
       </c>
       <c r="U23" t="n">
-        <v>653.4597783</v>
+        <v>1136.272107</v>
       </c>
     </row>
     <row r="24">
@@ -2131,7 +2125,7 @@
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
         <v>43</v>
@@ -2140,7 +2134,7 @@
         <v>78</v>
       </c>
       <c r="I24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J24" t="s">
         <v>28</v>
@@ -2158,25 +2152,25 @@
         <v>16.67607576</v>
       </c>
       <c r="O24" t="n">
-        <v>8937.907368</v>
+        <v>9921.744186</v>
       </c>
       <c r="P24" t="n">
-        <v>537</v>
+        <v>596</v>
       </c>
       <c r="Q24" t="n">
         <v>16.67520031</v>
       </c>
       <c r="R24" t="n">
-        <v>0.001073638</v>
+        <v>0.003054806</v>
       </c>
       <c r="S24" t="n">
-        <v>1134795.413</v>
+        <v>899783.4105</v>
       </c>
       <c r="T24" t="n">
-        <v>2334.526856</v>
+        <v>1584.144339</v>
       </c>
       <c r="U24" t="n">
-        <v>1136.272107</v>
+        <v>899.5685177</v>
       </c>
     </row>
     <row r="25">
@@ -2196,7 +2190,7 @@
         <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
         <v>43</v>
@@ -2205,7 +2199,7 @@
         <v>80</v>
       </c>
       <c r="I25" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J25" t="s">
         <v>28</v>
@@ -2223,89 +2217,24 @@
         <v>16.67607576</v>
       </c>
       <c r="O25" t="n">
-        <v>9921.744186</v>
+        <v>10422.0002</v>
       </c>
       <c r="P25" t="n">
-        <v>596</v>
+        <v>626</v>
       </c>
       <c r="Q25" t="n">
         <v>16.67520031</v>
       </c>
       <c r="R25" t="n">
-        <v>0.003054806</v>
+        <v>0.0034295</v>
       </c>
       <c r="S25" t="n">
-        <v>899783.4105</v>
+        <v>1212546.114</v>
       </c>
       <c r="T25" t="n">
-        <v>1584.144339</v>
+        <v>2184.23737</v>
       </c>
       <c r="U25" t="n">
-        <v>899.5685177</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44411</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>44462</v>
-      </c>
-      <c r="D26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" t="s">
-        <v>82</v>
-      </c>
-      <c r="I26" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" t="s">
-        <v>29</v>
-      </c>
-      <c r="L26" t="n">
-        <v>219807.3545</v>
-      </c>
-      <c r="M26" t="n">
-        <v>13182</v>
-      </c>
-      <c r="N26" t="n">
-        <v>16.67607576</v>
-      </c>
-      <c r="O26" t="n">
-        <v>10422.0002</v>
-      </c>
-      <c r="P26" t="n">
-        <v>626</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>16.67520031</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0.0034295</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1212546.114</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2184.23737</v>
-      </c>
-      <c r="U26" t="n">
         <v>1166.436626</v>
       </c>
     </row>
@@ -2325,10 +2254,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
@@ -2336,7 +2265,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3">
@@ -2344,7 +2273,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4">
@@ -2352,7 +2281,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -2360,7 +2289,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -2368,7 +2297,7 @@
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -2376,7 +2305,7 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -2384,7 +2313,7 @@
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9">
@@ -2392,7 +2321,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -2400,7 +2329,7 @@
         <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -2408,7 +2337,7 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
